--- a/builder/src/test/resources/eoTest.xlsx
+++ b/builder/src/test/resources/eoTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werner.diwischek/dev/elasticobjects/builder/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DAE222-B1C9-554C-859F-79456F525190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE7DA9-4E2E-974B-8E77-5CF2FAC72BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="2660" windowWidth="28240" windowHeight="17100" activeTab="1" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
+    <workbookView xWindow="9800" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{1E8B47EF-5738-BE4A-AAD2-1678499A82C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelConfig!$A$1:$N$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,9 +240,6 @@
     <t>hostConfigKey</t>
   </si>
   <si>
-    <t>{"create": true,  "shapeType": "BEAN"}</t>
-  </si>
-  <si>
     <t>ATestObject</t>
   </si>
   <si>
@@ -320,6 +316,9 @@
   </si>
   <si>
     <t>An ArrayList</t>
+  </si>
+  <si>
+    <t>{"create": true}</t>
   </si>
 </sst>
 </file>
@@ -698,11 +697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2949A4-7E1C-7F4B-A1BC-11445B521B01}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +774,7 @@
     </row>
     <row r="2" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
@@ -787,7 +786,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -803,7 +802,7 @@
         <v>ATestObject</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>28</v>
@@ -814,7 +813,7 @@
     </row>
     <row r="3" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -826,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>11</v>
@@ -842,7 +841,7 @@
         <v>ATestSubObject</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>28</v>
@@ -862,13 +861,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>29</v>
@@ -878,7 +877,7 @@
         <v>Date</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -889,13 +888,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>30</v>
@@ -905,7 +904,7 @@
         <v>Integer</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -916,13 +915,13 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>29</v>
@@ -932,7 +931,7 @@
         <v>ArrayList</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -943,13 +942,13 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>29</v>
@@ -959,7 +958,7 @@
         <v>HashMap</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
@@ -970,13 +969,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>30</v>
@@ -986,7 +985,7 @@
         <v>String</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1007,12 +1006,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B963DEC-06FA-0F4E-B89A-363FE5F4C7EE}">
   <dimension ref="A1:J810"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,7 +1061,7 @@
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1071,10 +1070,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1087,7 +1086,7 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1096,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>A3</f>
@@ -1113,7 +1112,7 @@
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -1139,7 +1138,7 @@
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1164,7 +1163,7 @@
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -1190,7 +1189,7 @@
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -1215,7 +1214,7 @@
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -1243,7 +1242,7 @@
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -1885,7 +1884,7 @@
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1949,7 @@
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
@@ -1968,7 +1967,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>48</v>
@@ -1985,7 +1984,7 @@
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
@@ -2003,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>47</v>
@@ -2020,7 +2019,7 @@
     </row>
     <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -2038,7 +2037,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>49</v>
@@ -2055,7 +2054,7 @@
     </row>
     <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -2073,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>50</v>
@@ -2090,7 +2089,7 @@
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -2108,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>51</v>
@@ -2125,7 +2124,7 @@
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>31</v>
@@ -2143,7 +2142,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>51</v>
